--- a/c#/GenerateScript/GenerateScript/bin/Debug/Template/tt.xlsx
+++ b/c#/GenerateScript/GenerateScript/bin/Debug/Template/tt.xlsx
@@ -781,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +961,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1122,9 +1140,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1470,7 +1491,7 @@
   <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,183 +1501,183 @@
     <col min="21" max="21" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>202</v>
       </c>
     </row>
